--- a/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -22,14 +22,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">体育!$A$1:$D$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$D$353</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$D$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$D$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$D$333</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5240" uniqueCount="921">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="922">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -2803,6 +2803,9 @@
   <si>
     <t>id=4886720949268374180</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewTV热播精选</t>
   </si>
 </sst>
 </file>
@@ -11762,9 +11765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D125"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection sqref="A1:D125"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -14710,11 +14711,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D331"/>
+  <dimension ref="A1:D333"/>
   <sheetViews>
-    <sheetView topLeftCell="A308" workbookViewId="0">
-      <selection sqref="A1:D331"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18212,30 +18211,30 @@
     </row>
     <row r="250" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>278</v>
+        <v>921</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D250" t="s">
-        <v>410</v>
+        <v>719</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>278</v>
+        <v>921</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D251" t="s">
-        <v>410</v>
+        <v>719</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18246,10 +18245,10 @@
         <v>29</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D252" t="s">
-        <v>721</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18260,15 +18259,15 @@
         <v>29</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D253" t="s">
-        <v>721</v>
+        <v>410</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>29</v>
@@ -18277,12 +18276,12 @@
         <v>104</v>
       </c>
       <c r="D254" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>29</v>
@@ -18291,7 +18290,7 @@
         <v>105</v>
       </c>
       <c r="D255" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18302,10 +18301,10 @@
         <v>29</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D256" t="s">
-        <v>411</v>
+        <v>722</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18316,38 +18315,38 @@
         <v>29</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D257" t="s">
-        <v>411</v>
+        <v>722</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D258" t="s">
-        <v>723</v>
+        <v>411</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D259" t="s">
-        <v>723</v>
+        <v>411</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18358,10 +18357,10 @@
         <v>29</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>412</v>
+        <v>723</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18372,10 +18371,10 @@
         <v>29</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
-        <v>412</v>
+        <v>723</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18386,10 +18385,10 @@
         <v>29</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D262" t="s">
-        <v>724</v>
+        <v>412</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18400,38 +18399,38 @@
         <v>29</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D263" t="s">
-        <v>724</v>
+        <v>412</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D264" t="s">
-        <v>413</v>
+        <v>724</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D265" t="s">
-        <v>413</v>
+        <v>724</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18442,10 +18441,10 @@
         <v>29</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D266" t="s">
-        <v>725</v>
+        <v>413</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18456,38 +18455,38 @@
         <v>29</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D267" t="s">
-        <v>725</v>
+        <v>413</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D268" t="s">
-        <v>414</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D269" t="s">
-        <v>414</v>
+        <v>725</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18498,10 +18497,10 @@
         <v>29</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D270" t="s">
-        <v>776</v>
+        <v>414</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18512,38 +18511,38 @@
         <v>29</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D271" t="s">
-        <v>776</v>
+        <v>414</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D272" t="s">
-        <v>415</v>
+        <v>776</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D273" t="s">
-        <v>415</v>
+        <v>776</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18554,10 +18553,10 @@
         <v>29</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D274" t="s">
-        <v>777</v>
+        <v>415</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18568,38 +18567,38 @@
         <v>29</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D275" t="s">
-        <v>777</v>
+        <v>415</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D276" t="s">
-        <v>416</v>
+        <v>777</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D277" t="s">
-        <v>416</v>
+        <v>777</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18610,10 +18609,10 @@
         <v>29</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D278" t="s">
-        <v>778</v>
+        <v>416</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18624,43 +18623,43 @@
         <v>29</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D279" t="s">
-        <v>778</v>
+        <v>416</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D280" t="s">
-        <v>417</v>
+        <v>778</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D281" t="s">
-        <v>417</v>
+        <v>778</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>29</v>
@@ -18669,12 +18668,12 @@
         <v>170</v>
       </c>
       <c r="D282" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>29</v>
@@ -18683,7 +18682,7 @@
         <v>171</v>
       </c>
       <c r="D283" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18694,10 +18693,10 @@
         <v>29</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D284" t="s">
-        <v>542</v>
+        <v>418</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18708,38 +18707,38 @@
         <v>29</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D285" t="s">
-        <v>542</v>
+        <v>418</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D286" t="s">
-        <v>419</v>
+        <v>542</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D287" t="s">
-        <v>419</v>
+        <v>542</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18750,10 +18749,10 @@
         <v>29</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D288" t="s">
-        <v>779</v>
+        <v>419</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18764,38 +18763,38 @@
         <v>29</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D289" t="s">
-        <v>779</v>
+        <v>419</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D290" t="s">
-        <v>420</v>
+        <v>779</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D291" t="s">
-        <v>420</v>
+        <v>779</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18806,10 +18805,10 @@
         <v>29</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D292" t="s">
-        <v>780</v>
+        <v>420</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18820,15 +18819,15 @@
         <v>29</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D293" t="s">
-        <v>780</v>
+        <v>420</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>29</v>
@@ -18837,12 +18836,12 @@
         <v>163</v>
       </c>
       <c r="D294" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>29</v>
@@ -18851,35 +18850,35 @@
         <v>164</v>
       </c>
       <c r="D295" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D296" t="s">
-        <v>421</v>
+        <v>781</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D297" t="s">
-        <v>421</v>
+        <v>781</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18890,10 +18889,10 @@
         <v>29</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D298" t="s">
-        <v>782</v>
+        <v>421</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18904,38 +18903,38 @@
         <v>29</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D299" t="s">
-        <v>782</v>
+        <v>421</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D300" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D301" t="s">
-        <v>422</v>
+        <v>782</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18946,10 +18945,10 @@
         <v>29</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D302" t="s">
-        <v>783</v>
+        <v>422</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -18960,38 +18959,38 @@
         <v>29</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D303" t="s">
-        <v>783</v>
+        <v>422</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D304" t="s">
-        <v>423</v>
+        <v>783</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D305" t="s">
-        <v>423</v>
+        <v>783</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19002,10 +19001,10 @@
         <v>29</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D306" t="s">
-        <v>784</v>
+        <v>423</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19016,38 +19015,38 @@
         <v>29</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D307" t="s">
-        <v>784</v>
+        <v>423</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D308" t="s">
-        <v>424</v>
+        <v>784</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D309" t="s">
-        <v>424</v>
+        <v>784</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19058,10 +19057,10 @@
         <v>29</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D310" t="s">
-        <v>785</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19072,38 +19071,38 @@
         <v>29</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D311" t="s">
-        <v>785</v>
+        <v>424</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D312" t="s">
-        <v>425</v>
+        <v>785</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D313" t="s">
-        <v>425</v>
+        <v>785</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19114,10 +19113,10 @@
         <v>29</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D314" t="s">
-        <v>786</v>
+        <v>425</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19128,38 +19127,38 @@
         <v>29</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D315" t="s">
-        <v>786</v>
+        <v>425</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D316" t="s">
-        <v>426</v>
+        <v>786</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D317" t="s">
-        <v>426</v>
+        <v>786</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19170,10 +19169,10 @@
         <v>29</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D318" t="s">
-        <v>787</v>
+        <v>426</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19184,38 +19183,38 @@
         <v>29</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D319" t="s">
-        <v>787</v>
+        <v>426</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D320" t="s">
-        <v>427</v>
+        <v>787</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D321" t="s">
-        <v>427</v>
+        <v>787</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19226,10 +19225,10 @@
         <v>29</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D322" t="s">
-        <v>788</v>
+        <v>427</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19240,38 +19239,38 @@
         <v>29</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D323" t="s">
-        <v>788</v>
+        <v>427</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D324" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D325" t="s">
-        <v>726</v>
+        <v>788</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19282,10 +19281,10 @@
         <v>29</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D326" t="s">
-        <v>428</v>
+        <v>726</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19296,15 +19295,15 @@
         <v>29</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D327" t="s">
-        <v>428</v>
+        <v>726</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>29</v>
@@ -19313,12 +19312,12 @@
         <v>170</v>
       </c>
       <c r="D328" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>29</v>
@@ -19327,7 +19326,7 @@
         <v>171</v>
       </c>
       <c r="D329" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19338,10 +19337,10 @@
         <v>29</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D330" t="s">
-        <v>543</v>
+        <v>429</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -19352,14 +19351,42 @@
         <v>29</v>
       </c>
       <c r="C331" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D331" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A332" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D332" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A333" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D331" t="s">
+      <c r="D333" t="s">
         <v>543</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D331"/>
+  <autoFilter ref="A1:D333"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="948">
   <si>
     <t>CCTV-1</t>
   </si>
@@ -2566,129 +2566,6 @@
     <t>id=2000000002000000106</t>
   </si>
   <si>
-    <t>咪视通-1</t>
-  </si>
-  <si>
-    <t>咪视通-2</t>
-  </si>
-  <si>
-    <t>咪视通-3</t>
-  </si>
-  <si>
-    <t>咪视通-4</t>
-  </si>
-  <si>
-    <t>咪视通-5</t>
-  </si>
-  <si>
-    <t>咪视通-7</t>
-  </si>
-  <si>
-    <t>咪视通-8</t>
-  </si>
-  <si>
-    <t>咪视通-9</t>
-  </si>
-  <si>
-    <t>咪视通-10</t>
-  </si>
-  <si>
-    <t>咪视通-11</t>
-  </si>
-  <si>
-    <t>咪视通-12</t>
-  </si>
-  <si>
-    <t>咪视通-13</t>
-  </si>
-  <si>
-    <t>咪视通-14</t>
-  </si>
-  <si>
-    <t>咪视通-15</t>
-  </si>
-  <si>
-    <t>咪视通-16</t>
-  </si>
-  <si>
-    <t>咪视通-17</t>
-  </si>
-  <si>
-    <t>咪视通-18</t>
-  </si>
-  <si>
-    <t>咪视通-19</t>
-  </si>
-  <si>
-    <t>咪视通-20</t>
-  </si>
-  <si>
-    <t>咪视通-21</t>
-  </si>
-  <si>
-    <t>咪视通-22</t>
-  </si>
-  <si>
-    <t>咪视通-23</t>
-  </si>
-  <si>
-    <t>咪视通-24</t>
-  </si>
-  <si>
-    <t>咪视通-25</t>
-  </si>
-  <si>
-    <t>咪视通-26</t>
-  </si>
-  <si>
-    <t>咪视通-27</t>
-  </si>
-  <si>
-    <t>咪视通-28</t>
-  </si>
-  <si>
-    <t>咪视通-29</t>
-  </si>
-  <si>
-    <t>咪视通-30</t>
-  </si>
-  <si>
-    <t>咪视通-31</t>
-  </si>
-  <si>
-    <t>咪视通-33</t>
-  </si>
-  <si>
-    <t>咪视通-34</t>
-  </si>
-  <si>
-    <t>咪视通-35</t>
-  </si>
-  <si>
-    <t>咪视通-36</t>
-  </si>
-  <si>
-    <t>咪视通-37</t>
-  </si>
-  <si>
-    <t>咪视通-38</t>
-  </si>
-  <si>
-    <t>咪视通-39</t>
-  </si>
-  <si>
-    <t>咪视通-40</t>
-  </si>
-  <si>
-    <t>咪视通-41</t>
-  </si>
-  <si>
-    <t>咪视通-3D</t>
-  </si>
-  <si>
-    <t>咪视通-4K</t>
-  </si>
-  <si>
     <t>百视通直播-3</t>
   </si>
   <si>
@@ -2806,6 +2683,207 @@
   </si>
   <si>
     <t>NewTV热播精选</t>
+  </si>
+  <si>
+    <t>咪咕视频-1</t>
+  </si>
+  <si>
+    <t>咪咕视频-2</t>
+  </si>
+  <si>
+    <t>咪咕视频-3</t>
+  </si>
+  <si>
+    <t>咪咕视频-4</t>
+  </si>
+  <si>
+    <t>咪咕视频-5</t>
+  </si>
+  <si>
+    <t>咪咕视频-7</t>
+  </si>
+  <si>
+    <t>咪咕视频-8</t>
+  </si>
+  <si>
+    <t>咪咕视频-9</t>
+  </si>
+  <si>
+    <t>咪咕视频-10</t>
+  </si>
+  <si>
+    <t>咪咕视频-11</t>
+  </si>
+  <si>
+    <t>咪咕视频-12</t>
+  </si>
+  <si>
+    <t>咪咕视频-13</t>
+  </si>
+  <si>
+    <t>咪咕视频-14</t>
+  </si>
+  <si>
+    <t>咪咕视频-15</t>
+  </si>
+  <si>
+    <t>咪咕视频-16</t>
+  </si>
+  <si>
+    <t>咪咕视频-17</t>
+  </si>
+  <si>
+    <t>咪咕视频-18</t>
+  </si>
+  <si>
+    <t>咪咕视频-19</t>
+  </si>
+  <si>
+    <t>咪咕视频-20</t>
+  </si>
+  <si>
+    <t>咪咕视频-21</t>
+  </si>
+  <si>
+    <t>咪咕视频-22</t>
+  </si>
+  <si>
+    <t>咪咕视频-23</t>
+  </si>
+  <si>
+    <t>咪咕视频-24</t>
+  </si>
+  <si>
+    <t>咪咕视频-25</t>
+  </si>
+  <si>
+    <t>咪咕视频-26</t>
+  </si>
+  <si>
+    <t>咪咕视频-27</t>
+  </si>
+  <si>
+    <t>咪咕视频-28</t>
+  </si>
+  <si>
+    <t>咪咕视频-29</t>
+  </si>
+  <si>
+    <t>咪咕视频-30</t>
+  </si>
+  <si>
+    <t>咪咕视频-31</t>
+  </si>
+  <si>
+    <t>咪咕视频-33</t>
+  </si>
+  <si>
+    <t>咪咕视频-34</t>
+  </si>
+  <si>
+    <t>咪咕视频-35</t>
+  </si>
+  <si>
+    <t>咪咕视频-36</t>
+  </si>
+  <si>
+    <t>咪咕视频-37</t>
+  </si>
+  <si>
+    <t>咪咕视频-38</t>
+  </si>
+  <si>
+    <t>咪咕视频-39</t>
+  </si>
+  <si>
+    <t>咪咕视频-40</t>
+  </si>
+  <si>
+    <t>咪咕视频-41</t>
+  </si>
+  <si>
+    <t>咪咕视频-3D</t>
+  </si>
+  <si>
+    <t>咪咕视频-4K</t>
+  </si>
+  <si>
+    <t>华语影院</t>
+  </si>
+  <si>
+    <t>星光影院</t>
+  </si>
+  <si>
+    <t>id=5000000011000288005</t>
+  </si>
+  <si>
+    <t>id=5000000011000288013</t>
+  </si>
+  <si>
+    <t>全球大片</t>
+  </si>
+  <si>
+    <t>id=5000000011000288009</t>
+  </si>
+  <si>
+    <t>热门剧场</t>
+  </si>
+  <si>
+    <t>id=5000000011000288010</t>
+  </si>
+  <si>
+    <t>谍战剧场</t>
+  </si>
+  <si>
+    <t>id=5000000011000288004</t>
+  </si>
+  <si>
+    <t>青春动漫</t>
+  </si>
+  <si>
+    <t>id=5000000011000288008</t>
+  </si>
+  <si>
+    <t>宝宝动画</t>
+  </si>
+  <si>
+    <t>id=5000000011000288002</t>
+  </si>
+  <si>
+    <t>戏曲精选</t>
+  </si>
+  <si>
+    <t>id=5000000011000288012</t>
+  </si>
+  <si>
+    <t>热门综艺</t>
+  </si>
+  <si>
+    <t>id=5000000011000288011</t>
+  </si>
+  <si>
+    <t>健康养生</t>
+  </si>
+  <si>
+    <t>id=5000000011000288006</t>
+  </si>
+  <si>
+    <t>百变课堂</t>
+  </si>
+  <si>
+    <t>id=5000000011000288001</t>
+  </si>
+  <si>
+    <t>看天下精选</t>
+  </si>
+  <si>
+    <t>id=5000000011000288007</t>
+  </si>
+  <si>
+    <t>电竞天堂</t>
+  </si>
+  <si>
+    <t>id=5000000011000288003</t>
   </si>
 </sst>
 </file>
@@ -13562,7 +13640,7 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>904</v>
+        <v>863</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>29</v>
@@ -13571,12 +13649,12 @@
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>903</v>
+        <v>862</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>29</v>
@@ -13585,12 +13663,12 @@
         <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>905</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
@@ -13599,12 +13677,12 @@
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>906</v>
+        <v>865</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>29</v>
@@ -13613,12 +13691,12 @@
         <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>908</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
@@ -13627,12 +13705,12 @@
         <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>909</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>907</v>
+        <v>866</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
@@ -13641,12 +13719,12 @@
         <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>909</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>29</v>
@@ -13655,12 +13733,12 @@
         <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>910</v>
+        <v>869</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>29</v>
@@ -13669,12 +13747,12 @@
         <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>911</v>
+        <v>870</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -13683,12 +13761,12 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>919</v>
+        <v>878</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -13697,12 +13775,12 @@
         <v>171</v>
       </c>
       <c r="D11" t="s">
-        <v>918</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
@@ -13711,12 +13789,12 @@
         <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>912</v>
+        <v>871</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>29</v>
@@ -13725,7 +13803,7 @@
         <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>913</v>
+        <v>872</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -13898,7 +13976,7 @@
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
@@ -13907,12 +13985,12 @@
         <v>170</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>914</v>
+        <v>873</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
@@ -13921,7 +13999,7 @@
         <v>171</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -13982,7 +14060,7 @@
     </row>
     <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -13991,12 +14069,12 @@
         <v>170</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>920</v>
+        <v>879</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>916</v>
+        <v>875</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -14005,7 +14083,7 @@
         <v>171</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>917</v>
+        <v>876</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -14711,7 +14789,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D333"/>
+  <dimension ref="A1:D359"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18211,7 +18289,7 @@
     </row>
     <row r="250" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>29</v>
@@ -18225,7 +18303,7 @@
     </row>
     <row r="251" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>921</v>
+        <v>880</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>29</v>
@@ -19383,6 +19461,370 @@
       </c>
       <c r="D333" t="s">
         <v>543</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A334" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D334" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A335" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D335" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A336" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D336" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A337" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D337" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A338" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D338" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A339" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D339" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A340" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D340" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A341" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D341" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A342" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D342" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A343" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D343" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A344" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D344" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A345" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D345" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A346" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D346" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A347" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D347" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A348" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D348" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A349" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D349" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A350" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D350" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A351" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D351" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A352" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D352" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A353" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D353" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A354" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D354" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A355" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D355" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A356" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D356" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A357" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D357" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A358" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D358" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A359" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D359" t="s">
+        <v>947</v>
       </c>
     </row>
   </sheetData>
@@ -19982,7 +20424,7 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>29</v>
@@ -19996,7 +20438,7 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>29</v>
@@ -20010,7 +20452,7 @@
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>29</v>
@@ -20024,7 +20466,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>29</v>
@@ -20038,7 +20480,7 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>29</v>
@@ -20052,7 +20494,7 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>29</v>
@@ -20066,7 +20508,7 @@
     </row>
     <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>29</v>
@@ -20080,7 +20522,7 @@
     </row>
     <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>29</v>
@@ -20094,7 +20536,7 @@
     </row>
     <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>29</v>
@@ -20108,7 +20550,7 @@
     </row>
     <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>29</v>
@@ -20122,7 +20564,7 @@
     </row>
     <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>29</v>
@@ -20136,7 +20578,7 @@
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>29</v>
@@ -20150,7 +20592,7 @@
     </row>
     <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>29</v>
@@ -20164,7 +20606,7 @@
     </row>
     <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>29</v>
@@ -20178,7 +20620,7 @@
     </row>
     <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>29</v>
@@ -20192,7 +20634,7 @@
     </row>
     <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>29</v>
@@ -20206,7 +20648,7 @@
     </row>
     <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>29</v>
@@ -20220,7 +20662,7 @@
     </row>
     <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>29</v>
@@ -20234,7 +20676,7 @@
     </row>
     <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>851</v>
+        <v>890</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>29</v>
@@ -20248,7 +20690,7 @@
     </row>
     <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>851</v>
+        <v>890</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>29</v>
@@ -20262,7 +20704,7 @@
     </row>
     <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>852</v>
+        <v>891</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>29</v>
@@ -20276,7 +20718,7 @@
     </row>
     <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>852</v>
+        <v>891</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>29</v>
@@ -20290,7 +20732,7 @@
     </row>
     <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>29</v>
@@ -20304,7 +20746,7 @@
     </row>
     <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>29</v>
@@ -20318,7 +20760,7 @@
     </row>
     <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>29</v>
@@ -20332,7 +20774,7 @@
     </row>
     <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
-        <v>854</v>
+        <v>893</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>29</v>
@@ -20346,7 +20788,7 @@
     </row>
     <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>29</v>
@@ -20360,7 +20802,7 @@
     </row>
     <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>29</v>
@@ -20374,7 +20816,7 @@
     </row>
     <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>29</v>
@@ -20388,7 +20830,7 @@
     </row>
     <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>29</v>
@@ -20402,7 +20844,7 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>29</v>
@@ -20416,7 +20858,7 @@
     </row>
     <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>29</v>
@@ -20430,7 +20872,7 @@
     </row>
     <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>29</v>
@@ -20444,7 +20886,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>29</v>
@@ -20458,7 +20900,7 @@
     </row>
     <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>29</v>
@@ -20472,7 +20914,7 @@
     </row>
     <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>29</v>
@@ -20486,7 +20928,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>29</v>
@@ -20500,7 +20942,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>29</v>
@@ -20514,7 +20956,7 @@
     </row>
     <row r="80" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>29</v>
@@ -20528,7 +20970,7 @@
     </row>
     <row r="81" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>29</v>
@@ -20542,7 +20984,7 @@
     </row>
     <row r="82" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>29</v>
@@ -20556,7 +20998,7 @@
     </row>
     <row r="83" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>29</v>
@@ -20570,7 +21012,7 @@
     </row>
     <row r="84" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>29</v>
@@ -20584,7 +21026,7 @@
     </row>
     <row r="85" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>29</v>
@@ -20598,7 +21040,7 @@
     </row>
     <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>29</v>
@@ -20612,7 +21054,7 @@
     </row>
     <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>29</v>
@@ -20626,7 +21068,7 @@
     </row>
     <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>29</v>
@@ -20640,7 +21082,7 @@
     </row>
     <row r="89" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>29</v>
@@ -20654,7 +21096,7 @@
     </row>
     <row r="90" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>29</v>
@@ -20668,7 +21110,7 @@
     </row>
     <row r="91" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>29</v>
@@ -20682,7 +21124,7 @@
     </row>
     <row r="92" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>29</v>
@@ -20696,7 +21138,7 @@
     </row>
     <row r="93" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>29</v>
@@ -20710,7 +21152,7 @@
     </row>
     <row r="94" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>29</v>
@@ -20724,7 +21166,7 @@
     </row>
     <row r="95" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>29</v>
@@ -20738,7 +21180,7 @@
     </row>
     <row r="96" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>29</v>
@@ -20752,7 +21194,7 @@
     </row>
     <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>29</v>
@@ -20766,7 +21208,7 @@
     </row>
     <row r="98" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>29</v>
@@ -20780,7 +21222,7 @@
     </row>
     <row r="99" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>29</v>
@@ -20794,7 +21236,7 @@
     </row>
     <row r="100" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>29</v>
@@ -20808,7 +21250,7 @@
     </row>
     <row r="101" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>29</v>
@@ -20822,7 +21264,7 @@
     </row>
     <row r="102" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>29</v>
@@ -20836,7 +21278,7 @@
     </row>
     <row r="103" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>29</v>
@@ -20850,7 +21292,7 @@
     </row>
     <row r="104" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>29</v>
@@ -20864,7 +21306,7 @@
     </row>
     <row r="105" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>29</v>
@@ -20878,7 +21320,7 @@
     </row>
     <row r="106" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="5" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>29</v>
@@ -20892,7 +21334,7 @@
     </row>
     <row r="107" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>29</v>
@@ -20906,7 +21348,7 @@
     </row>
     <row r="108" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>29</v>
@@ -20920,7 +21362,7 @@
     </row>
     <row r="109" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>29</v>
@@ -20934,7 +21376,7 @@
     </row>
     <row r="110" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>29</v>
@@ -20948,7 +21390,7 @@
     </row>
     <row r="111" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>29</v>
@@ -20962,7 +21404,7 @@
     </row>
     <row r="112" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>29</v>
@@ -20976,7 +21418,7 @@
     </row>
     <row r="113" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>29</v>
@@ -20990,7 +21432,7 @@
     </row>
     <row r="114" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>29</v>
@@ -21004,7 +21446,7 @@
     </row>
     <row r="115" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="6" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>29</v>
@@ -21018,7 +21460,7 @@
     </row>
     <row r="116" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>29</v>
@@ -21032,7 +21474,7 @@
     </row>
     <row r="117" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>29</v>
@@ -21046,7 +21488,7 @@
     </row>
     <row r="118" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="6" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>29</v>
@@ -21060,7 +21502,7 @@
     </row>
     <row r="119" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="6" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>29</v>
@@ -21074,7 +21516,7 @@
     </row>
     <row r="120" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="5" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>29</v>
@@ -21088,7 +21530,7 @@
     </row>
     <row r="121" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>29</v>
@@ -21102,7 +21544,7 @@
     </row>
     <row r="122" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>29</v>
@@ -21116,7 +21558,7 @@
     </row>
     <row r="123" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>29</v>
@@ -21130,7 +21572,7 @@
     </row>
     <row r="124" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>29</v>
@@ -21144,7 +21586,7 @@
     </row>
     <row r="125" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>29</v>
@@ -21158,7 +21600,7 @@
     </row>
     <row r="126" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>883</v>
+        <v>842</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>29</v>
@@ -21172,7 +21614,7 @@
     </row>
     <row r="127" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>883</v>
+        <v>842</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>29</v>
@@ -21186,7 +21628,7 @@
     </row>
     <row r="128" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="4" t="s">
-        <v>884</v>
+        <v>843</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>29</v>
@@ -21200,7 +21642,7 @@
     </row>
     <row r="129" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" s="4" t="s">
-        <v>884</v>
+        <v>843</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>29</v>
@@ -21214,7 +21656,7 @@
     </row>
     <row r="130" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" s="4" t="s">
-        <v>885</v>
+        <v>844</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>29</v>
@@ -21228,7 +21670,7 @@
     </row>
     <row r="131" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" s="4" t="s">
-        <v>885</v>
+        <v>844</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>29</v>
@@ -21242,7 +21684,7 @@
     </row>
     <row r="132" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="4" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>29</v>
@@ -21256,7 +21698,7 @@
     </row>
     <row r="133" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A133" s="4" t="s">
-        <v>886</v>
+        <v>845</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>29</v>
@@ -21270,7 +21712,7 @@
     </row>
     <row r="134" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="4" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>29</v>
@@ -21284,7 +21726,7 @@
     </row>
     <row r="135" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="4" t="s">
-        <v>887</v>
+        <v>846</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>29</v>
@@ -21298,7 +21740,7 @@
     </row>
     <row r="136" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="4" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>29</v>
@@ -21312,7 +21754,7 @@
     </row>
     <row r="137" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="4" t="s">
-        <v>888</v>
+        <v>847</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>29</v>
@@ -21326,7 +21768,7 @@
     </row>
     <row r="138" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="4" t="s">
-        <v>889</v>
+        <v>848</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>29</v>
@@ -21340,7 +21782,7 @@
     </row>
     <row r="139" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="4" t="s">
-        <v>889</v>
+        <v>848</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>29</v>
@@ -21354,7 +21796,7 @@
     </row>
     <row r="140" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="4" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>29</v>
@@ -21368,7 +21810,7 @@
     </row>
     <row r="141" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="4" t="s">
-        <v>890</v>
+        <v>849</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>29</v>
@@ -21382,7 +21824,7 @@
     </row>
     <row r="142" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="4" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>29</v>
@@ -21396,7 +21838,7 @@
     </row>
     <row r="143" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="4" t="s">
-        <v>891</v>
+        <v>850</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>29</v>
@@ -21410,7 +21852,7 @@
     </row>
     <row r="144" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="4" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>29</v>
@@ -21424,7 +21866,7 @@
     </row>
     <row r="145" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A145" s="4" t="s">
-        <v>892</v>
+        <v>851</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>29</v>
@@ -21438,7 +21880,7 @@
     </row>
     <row r="146" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A146" s="4" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>29</v>
@@ -21452,7 +21894,7 @@
     </row>
     <row r="147" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A147" s="4" t="s">
-        <v>893</v>
+        <v>852</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>29</v>
@@ -21466,7 +21908,7 @@
     </row>
     <row r="148" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A148" s="4" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>29</v>
@@ -21480,7 +21922,7 @@
     </row>
     <row r="149" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A149" s="4" t="s">
-        <v>894</v>
+        <v>853</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>29</v>
@@ -21494,7 +21936,7 @@
     </row>
     <row r="150" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A150" s="4" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>29</v>
@@ -21508,7 +21950,7 @@
     </row>
     <row r="151" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A151" s="4" t="s">
-        <v>895</v>
+        <v>854</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>29</v>
@@ -21522,7 +21964,7 @@
     </row>
     <row r="152" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A152" s="4" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>29</v>
@@ -21536,7 +21978,7 @@
     </row>
     <row r="153" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A153" s="4" t="s">
-        <v>896</v>
+        <v>855</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>29</v>
@@ -21550,7 +21992,7 @@
     </row>
     <row r="154" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A154" s="4" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>29</v>
@@ -21564,7 +22006,7 @@
     </row>
     <row r="155" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A155" s="4" t="s">
-        <v>897</v>
+        <v>856</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>29</v>
@@ -21578,7 +22020,7 @@
     </row>
     <row r="156" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A156" s="4" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>29</v>
@@ -21592,7 +22034,7 @@
     </row>
     <row r="157" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A157" s="4" t="s">
-        <v>898</v>
+        <v>857</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>29</v>
@@ -21606,7 +22048,7 @@
     </row>
     <row r="158" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A158" s="4" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>29</v>
@@ -21620,7 +22062,7 @@
     </row>
     <row r="159" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A159" s="4" t="s">
-        <v>899</v>
+        <v>858</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>29</v>
@@ -21634,7 +22076,7 @@
     </row>
     <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A160" s="4" t="s">
-        <v>900</v>
+        <v>859</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>29</v>
@@ -21648,7 +22090,7 @@
     </row>
     <row r="161" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A161" s="4" t="s">
-        <v>900</v>
+        <v>859</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>29</v>
@@ -21662,7 +22104,7 @@
     </row>
     <row r="162" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A162" s="4" t="s">
-        <v>901</v>
+        <v>860</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>29</v>
@@ -21676,7 +22118,7 @@
     </row>
     <row r="163" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A163" s="4" t="s">
-        <v>901</v>
+        <v>860</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>29</v>
@@ -21690,7 +22132,7 @@
     </row>
     <row r="164" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A164" s="4" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>29</v>
@@ -21704,7 +22146,7 @@
     </row>
     <row r="165" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A165" s="4" t="s">
-        <v>902</v>
+        <v>861</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>29</v>

--- a/IPV6直播源汇总/移动ITV-域名版.xlsx
+++ b/IPV6直播源汇总/移动ITV-域名版.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">体育!$A$1:$D$165</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">卫视!$A$1:$D$353</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">央视!$A$1:$D$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$D$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">娱乐!$A$1:$D$359</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -2808,82 +2808,82 @@
     <t>咪咕视频-4K</t>
   </si>
   <si>
-    <t>华语影院</t>
-  </si>
-  <si>
-    <t>星光影院</t>
-  </si>
-  <si>
     <t>id=5000000011000288005</t>
   </si>
   <si>
     <t>id=5000000011000288013</t>
   </si>
   <si>
-    <t>全球大片</t>
-  </si>
-  <si>
     <t>id=5000000011000288009</t>
   </si>
   <si>
-    <t>热门剧场</t>
-  </si>
-  <si>
     <t>id=5000000011000288010</t>
   </si>
   <si>
-    <t>谍战剧场</t>
-  </si>
-  <si>
     <t>id=5000000011000288004</t>
   </si>
   <si>
-    <t>青春动漫</t>
-  </si>
-  <si>
     <t>id=5000000011000288008</t>
   </si>
   <si>
-    <t>宝宝动画</t>
-  </si>
-  <si>
     <t>id=5000000011000288002</t>
   </si>
   <si>
-    <t>戏曲精选</t>
-  </si>
-  <si>
     <t>id=5000000011000288012</t>
   </si>
   <si>
-    <t>热门综艺</t>
-  </si>
-  <si>
     <t>id=5000000011000288011</t>
   </si>
   <si>
-    <t>健康养生</t>
-  </si>
-  <si>
     <t>id=5000000011000288006</t>
   </si>
   <si>
-    <t>百变课堂</t>
-  </si>
-  <si>
     <t>id=5000000011000288001</t>
   </si>
   <si>
-    <t>看天下精选</t>
-  </si>
-  <si>
     <t>id=5000000011000288007</t>
   </si>
   <si>
-    <t>电竞天堂</t>
-  </si>
-  <si>
     <t>id=5000000011000288003</t>
+  </si>
+  <si>
+    <t>BesTV华语影院</t>
+  </si>
+  <si>
+    <t>BesTV星光影院</t>
+  </si>
+  <si>
+    <t>BesTV全球大片</t>
+  </si>
+  <si>
+    <t>BesTV热门剧场</t>
+  </si>
+  <si>
+    <t>BesTV谍战剧场</t>
+  </si>
+  <si>
+    <t>BesTV青春动漫</t>
+  </si>
+  <si>
+    <t>BesTV宝宝动画</t>
+  </si>
+  <si>
+    <t>BesTV戏曲精选</t>
+  </si>
+  <si>
+    <t>BesTV热门综艺</t>
+  </si>
+  <si>
+    <t>BesTV健康养生</t>
+  </si>
+  <si>
+    <t>BesTV百变课堂</t>
+  </si>
+  <si>
+    <t>BesTV看天下精选</t>
+  </si>
+  <si>
+    <t>BesTV电竞天堂</t>
   </si>
 </sst>
 </file>
@@ -14845,399 +14845,399 @@
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>228</v>
+        <v>935</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>922</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>935</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>922</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>228</v>
+        <v>936</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D6" t="s">
-        <v>752</v>
+        <v>923</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>228</v>
+        <v>936</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D7" t="s">
-        <v>752</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>937</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D8" t="s">
-        <v>360</v>
+        <v>924</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>937</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>360</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>229</v>
+        <v>938</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D10" t="s">
-        <v>753</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>229</v>
+        <v>938</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s">
-        <v>753</v>
+        <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
-        <v>230</v>
+        <v>939</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>926</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>230</v>
+        <v>939</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>361</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>230</v>
+        <v>940</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
-        <v>754</v>
+        <v>927</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>940</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D15" t="s">
-        <v>754</v>
+        <v>927</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>231</v>
+        <v>941</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>362</v>
+        <v>928</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>231</v>
+        <v>941</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>362</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>231</v>
+        <v>942</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>755</v>
+        <v>929</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>231</v>
+        <v>942</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D19" t="s">
-        <v>755</v>
+        <v>929</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>232</v>
+        <v>943</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>363</v>
+        <v>930</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>943</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D21" t="s">
-        <v>363</v>
+        <v>930</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>232</v>
+        <v>944</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
-        <v>756</v>
+        <v>931</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>944</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D23" t="s">
-        <v>756</v>
+        <v>931</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
-        <v>233</v>
+        <v>945</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>932</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>233</v>
+        <v>945</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>364</v>
+        <v>932</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
-        <v>233</v>
+        <v>946</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
-        <v>757</v>
+        <v>933</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>233</v>
+        <v>946</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>757</v>
+        <v>933</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>234</v>
+        <v>947</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="D28" t="s">
-        <v>365</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>234</v>
+        <v>947</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D29" t="s">
-        <v>365</v>
+        <v>934</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>758</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D31" t="s">
-        <v>758</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
@@ -15246,12 +15246,12 @@
         <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>29</v>
@@ -15260,12 +15260,12 @@
         <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
@@ -15274,12 +15274,12 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>29</v>
@@ -15288,12 +15288,12 @@
         <v>171</v>
       </c>
       <c r="D35" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>29</v>
@@ -15302,12 +15302,12 @@
         <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>29</v>
@@ -15316,12 +15316,12 @@
         <v>164</v>
       </c>
       <c r="D37" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>29</v>
@@ -15330,12 +15330,12 @@
         <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>29</v>
@@ -15344,12 +15344,12 @@
         <v>171</v>
       </c>
       <c r="D39" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>29</v>
@@ -15358,12 +15358,12 @@
         <v>163</v>
       </c>
       <c r="D40" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>29</v>
@@ -15372,12 +15372,12 @@
         <v>164</v>
       </c>
       <c r="D41" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>29</v>
@@ -15386,12 +15386,12 @@
         <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>29</v>
@@ -15400,12 +15400,12 @@
         <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>29</v>
@@ -15414,12 +15414,12 @@
         <v>163</v>
       </c>
       <c r="D44" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>29</v>
@@ -15428,12 +15428,12 @@
         <v>164</v>
       </c>
       <c r="D45" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>29</v>
@@ -15442,12 +15442,12 @@
         <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>29</v>
@@ -15456,12 +15456,12 @@
         <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>29</v>
@@ -15470,12 +15470,12 @@
         <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>29</v>
@@ -15484,12 +15484,12 @@
         <v>164</v>
       </c>
       <c r="D49" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>29</v>
@@ -15498,12 +15498,12 @@
         <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
@@ -15512,12 +15512,12 @@
         <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>29</v>
@@ -15526,12 +15526,12 @@
         <v>163</v>
       </c>
       <c r="D52" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>29</v>
@@ -15540,12 +15540,12 @@
         <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>29</v>
@@ -15554,12 +15554,12 @@
         <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>29</v>
@@ -15568,12 +15568,12 @@
         <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>29</v>
@@ -15582,12 +15582,12 @@
         <v>163</v>
       </c>
       <c r="D56" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>29</v>
@@ -15596,712 +15596,712 @@
         <v>164</v>
       </c>
       <c r="D57" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D58" t="s">
-        <v>372</v>
+        <v>759</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>372</v>
+        <v>759</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>766</v>
+        <v>366</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D61" t="s">
-        <v>766</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>373</v>
+        <v>760</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>373</v>
+        <v>760</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>767</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D65" t="s">
-        <v>767</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s">
-        <v>374</v>
+        <v>761</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>374</v>
+        <v>761</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>768</v>
+        <v>368</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D69" t="s">
-        <v>768</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s">
-        <v>375</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D71" t="s">
-        <v>375</v>
+        <v>762</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>769</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>769</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D74" t="s">
-        <v>376</v>
+        <v>763</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D75" t="s">
-        <v>376</v>
+        <v>763</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>770</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D77" t="s">
-        <v>770</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D78" t="s">
-        <v>377</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D79" t="s">
-        <v>377</v>
+        <v>764</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>771</v>
+        <v>371</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>771</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D82" t="s">
-        <v>378</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D83" t="s">
-        <v>378</v>
+        <v>765</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>772</v>
+        <v>372</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
-        <v>772</v>
+        <v>372</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D86" t="s">
-        <v>379</v>
+        <v>766</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D87" t="s">
-        <v>379</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>773</v>
+        <v>373</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D89" t="s">
-        <v>773</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D90" t="s">
-        <v>380</v>
+        <v>767</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D91" t="s">
-        <v>380</v>
+        <v>767</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>774</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D93" t="s">
-        <v>774</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D94" t="s">
-        <v>381</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>381</v>
+        <v>768</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>775</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>775</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D98" t="s">
-        <v>382</v>
+        <v>769</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D99" t="s">
-        <v>382</v>
+        <v>769</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>673</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D101" t="s">
-        <v>673</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D102" t="s">
-        <v>674</v>
+        <v>770</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D103" t="s">
-        <v>674</v>
+        <v>770</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>675</v>
+        <v>377</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D105" t="s">
-        <v>675</v>
+        <v>377</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D106" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D107" t="s">
-        <v>676</v>
+        <v>771</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>29</v>
@@ -16310,12 +16310,12 @@
         <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>29</v>
@@ -16324,96 +16324,96 @@
         <v>171</v>
       </c>
       <c r="D109" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D110" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D111" t="s">
-        <v>677</v>
+        <v>772</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>678</v>
+        <v>379</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>678</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D114" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D115" t="s">
-        <v>679</v>
+        <v>773</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>29</v>
@@ -16422,12 +16422,12 @@
         <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>29</v>
@@ -16436,96 +16436,96 @@
         <v>171</v>
       </c>
       <c r="D117" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D118" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D119" t="s">
-        <v>680</v>
+        <v>774</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>681</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>681</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D122" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D123" t="s">
-        <v>682</v>
+        <v>775</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A124" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>29</v>
@@ -16534,12 +16534,12 @@
         <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A125" s="2" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>29</v>
@@ -16548,12 +16548,12 @@
         <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A126" s="2" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>29</v>
@@ -16562,12 +16562,12 @@
         <v>104</v>
       </c>
       <c r="D126" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A127" s="2" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>29</v>
@@ -16576,12 +16576,12 @@
         <v>105</v>
       </c>
       <c r="D127" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A128" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>29</v>
@@ -16590,12 +16590,12 @@
         <v>104</v>
       </c>
       <c r="D128" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A129" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>29</v>
@@ -16604,12 +16604,12 @@
         <v>105</v>
       </c>
       <c r="D129" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A130" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>29</v>
@@ -16618,12 +16618,12 @@
         <v>104</v>
       </c>
       <c r="D130" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A131" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>29</v>
@@ -16632,40 +16632,40 @@
         <v>105</v>
       </c>
       <c r="D131" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A132" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D132" t="s">
-        <v>386</v>
+        <v>676</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A133" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D133" t="s">
-        <v>386</v>
+        <v>676</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A134" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>29</v>
@@ -16674,12 +16674,12 @@
         <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A135" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>29</v>
@@ -16688,12 +16688,12 @@
         <v>171</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A136" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>29</v>
@@ -16702,12 +16702,12 @@
         <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A137" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>29</v>
@@ -16716,12 +16716,12 @@
         <v>105</v>
       </c>
       <c r="D137" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A138" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>29</v>
@@ -16730,12 +16730,12 @@
         <v>104</v>
       </c>
       <c r="D138" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A139" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>29</v>
@@ -16744,68 +16744,68 @@
         <v>105</v>
       </c>
       <c r="D139" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A140" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D140" t="s">
-        <v>388</v>
+        <v>679</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A141" s="2" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D141" t="s">
-        <v>388</v>
+        <v>679</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A142" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>688</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A143" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D143" t="s">
-        <v>688</v>
+        <v>384</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A144" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>29</v>
@@ -16814,12 +16814,12 @@
         <v>104</v>
       </c>
       <c r="D144" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A145" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>29</v>
@@ -16828,68 +16828,68 @@
         <v>105</v>
       </c>
       <c r="D145" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A146" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D146" t="s">
-        <v>389</v>
+        <v>681</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A147" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>389</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A148" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D148" t="s">
-        <v>390</v>
+        <v>682</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A149" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D149" t="s">
-        <v>390</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A150" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>29</v>
@@ -16898,12 +16898,12 @@
         <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A151" s="2" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>29</v>
@@ -16912,12 +16912,12 @@
         <v>171</v>
       </c>
       <c r="D151" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A152" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>29</v>
@@ -16926,12 +16926,12 @@
         <v>104</v>
       </c>
       <c r="D152" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A153" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>29</v>
@@ -16940,12 +16940,12 @@
         <v>105</v>
       </c>
       <c r="D153" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A154" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>29</v>
@@ -16954,12 +16954,12 @@
         <v>104</v>
       </c>
       <c r="D154" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A155" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>29</v>
@@ -16968,68 +16968,68 @@
         <v>105</v>
       </c>
       <c r="D155" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A156" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D156" t="s">
-        <v>392</v>
+        <v>685</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D157" t="s">
-        <v>392</v>
+        <v>685</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A158" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>692</v>
+        <v>386</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A159" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D159" t="s">
-        <v>692</v>
+        <v>386</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A160" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>29</v>
@@ -17038,12 +17038,12 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A161" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>29</v>
@@ -17052,12 +17052,12 @@
         <v>171</v>
       </c>
       <c r="D161" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A162" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>29</v>
@@ -17066,12 +17066,12 @@
         <v>104</v>
       </c>
       <c r="D162" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A163" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>29</v>
@@ -17080,68 +17080,68 @@
         <v>105</v>
       </c>
       <c r="D163" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D164" t="s">
-        <v>394</v>
+        <v>687</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D165" t="s">
-        <v>394</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A166" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D166" t="s">
-        <v>694</v>
+        <v>388</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A167" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D167" t="s">
-        <v>694</v>
+        <v>388</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A168" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>29</v>
@@ -17150,12 +17150,12 @@
         <v>104</v>
       </c>
       <c r="D168" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A169" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>29</v>
@@ -17164,96 +17164,96 @@
         <v>105</v>
       </c>
       <c r="D169" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A170" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D170" t="s">
-        <v>395</v>
+        <v>689</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A171" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D171" t="s">
-        <v>395</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A172" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D172" t="s">
-        <v>696</v>
+        <v>389</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A173" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D173" t="s">
-        <v>696</v>
+        <v>389</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A174" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D174" t="s">
-        <v>697</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A175" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D175" t="s">
-        <v>697</v>
+        <v>390</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A176" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>29</v>
@@ -17262,12 +17262,12 @@
         <v>170</v>
       </c>
       <c r="D176" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A177" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>29</v>
@@ -17276,12 +17276,12 @@
         <v>171</v>
       </c>
       <c r="D177" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A178" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>29</v>
@@ -17290,12 +17290,12 @@
         <v>104</v>
       </c>
       <c r="D178" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A179" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>29</v>
@@ -17304,12 +17304,12 @@
         <v>105</v>
       </c>
       <c r="D179" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A180" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>29</v>
@@ -17318,12 +17318,12 @@
         <v>104</v>
       </c>
       <c r="D180" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A181" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>29</v>
@@ -17332,12 +17332,12 @@
         <v>105</v>
       </c>
       <c r="D181" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A182" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>29</v>
@@ -17346,12 +17346,12 @@
         <v>170</v>
       </c>
       <c r="D182" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A183" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>29</v>
@@ -17360,12 +17360,12 @@
         <v>171</v>
       </c>
       <c r="D183" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A184" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>29</v>
@@ -17374,12 +17374,12 @@
         <v>104</v>
       </c>
       <c r="D184" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A185" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>29</v>
@@ -17388,12 +17388,12 @@
         <v>105</v>
       </c>
       <c r="D185" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A186" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>29</v>
@@ -17402,12 +17402,12 @@
         <v>170</v>
       </c>
       <c r="D186" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A187" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>29</v>
@@ -17416,12 +17416,12 @@
         <v>171</v>
       </c>
       <c r="D187" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A188" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>29</v>
@@ -17430,12 +17430,12 @@
         <v>104</v>
       </c>
       <c r="D188" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A189" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>29</v>
@@ -17444,68 +17444,68 @@
         <v>105</v>
       </c>
       <c r="D189" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A190" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D190" t="s">
-        <v>702</v>
+        <v>394</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A191" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D191" t="s">
-        <v>702</v>
+        <v>394</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A192" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D192" t="s">
-        <v>399</v>
+        <v>694</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A193" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D193" t="s">
-        <v>399</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A194" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>29</v>
@@ -17514,12 +17514,12 @@
         <v>104</v>
       </c>
       <c r="D194" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A195" s="2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>29</v>
@@ -17528,68 +17528,68 @@
         <v>105</v>
       </c>
       <c r="D195" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A196" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D196" t="s">
-        <v>704</v>
+        <v>395</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A197" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D197" t="s">
-        <v>704</v>
+        <v>395</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A198" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D198" t="s">
-        <v>400</v>
+        <v>696</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A199" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D199" t="s">
-        <v>400</v>
+        <v>696</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A200" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>29</v>
@@ -17598,12 +17598,12 @@
         <v>104</v>
       </c>
       <c r="D200" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A201" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>29</v>
@@ -17612,68 +17612,68 @@
         <v>105</v>
       </c>
       <c r="D201" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A202" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D202" t="s">
-        <v>706</v>
+        <v>396</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A203" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D203" t="s">
-        <v>706</v>
+        <v>396</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A204" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D204" t="s">
-        <v>401</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A205" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D205" t="s">
-        <v>401</v>
+        <v>698</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A206" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>29</v>
@@ -17682,12 +17682,12 @@
         <v>104</v>
       </c>
       <c r="D206" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A207" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>29</v>
@@ -17696,40 +17696,40 @@
         <v>105</v>
       </c>
       <c r="D207" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A208" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D208" t="s">
-        <v>708</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A209" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D209" t="s">
-        <v>708</v>
+        <v>397</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A210" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>29</v>
@@ -17738,12 +17738,12 @@
         <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A211" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>29</v>
@@ -17752,68 +17752,68 @@
         <v>105</v>
       </c>
       <c r="D211" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A212" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D212" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A213" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D213" t="s">
-        <v>710</v>
+        <v>398</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A214" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D214" t="s">
-        <v>402</v>
+        <v>701</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A215" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D215" t="s">
-        <v>402</v>
+        <v>701</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A216" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>29</v>
@@ -17822,12 +17822,12 @@
         <v>104</v>
       </c>
       <c r="D216" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A217" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>29</v>
@@ -17836,12 +17836,12 @@
         <v>105</v>
       </c>
       <c r="D217" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A218" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>29</v>
@@ -17850,12 +17850,12 @@
         <v>170</v>
       </c>
       <c r="D218" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A219" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>29</v>
@@ -17864,12 +17864,12 @@
         <v>171</v>
       </c>
       <c r="D219" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A220" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>29</v>
@@ -17878,12 +17878,12 @@
         <v>104</v>
       </c>
       <c r="D220" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A221" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>29</v>
@@ -17892,12 +17892,12 @@
         <v>105</v>
       </c>
       <c r="D221" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A222" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>29</v>
@@ -17906,12 +17906,12 @@
         <v>104</v>
       </c>
       <c r="D222" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A223" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>29</v>
@@ -17920,12 +17920,12 @@
         <v>105</v>
       </c>
       <c r="D223" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A224" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>29</v>
@@ -17934,12 +17934,12 @@
         <v>170</v>
       </c>
       <c r="D224" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A225" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>29</v>
@@ -17948,12 +17948,12 @@
         <v>171</v>
       </c>
       <c r="D225" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A226" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>29</v>
@@ -17962,12 +17962,12 @@
         <v>104</v>
       </c>
       <c r="D226" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A227" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>29</v>
@@ -17976,96 +17976,96 @@
         <v>105</v>
       </c>
       <c r="D227" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A228" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D228" t="s">
-        <v>405</v>
+        <v>706</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A229" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D229" t="s">
-        <v>405</v>
+        <v>706</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A230" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D230" t="s">
-        <v>715</v>
+        <v>401</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A231" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D231" t="s">
-        <v>715</v>
+        <v>401</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A232" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D232" t="s">
-        <v>406</v>
+        <v>707</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A233" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D233" t="s">
-        <v>406</v>
+        <v>707</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A234" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>29</v>
@@ -18074,12 +18074,12 @@
         <v>104</v>
       </c>
       <c r="D234" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A235" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>29</v>
@@ -18088,12 +18088,12 @@
         <v>105</v>
       </c>
       <c r="D235" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A236" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>29</v>
@@ -18102,12 +18102,12 @@
         <v>104</v>
       </c>
       <c r="D236" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A237" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>29</v>
@@ -18116,12 +18116,12 @@
         <v>105</v>
       </c>
       <c r="D237" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A238" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>29</v>
@@ -18130,12 +18130,12 @@
         <v>104</v>
       </c>
       <c r="D238" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A239" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>29</v>
@@ -18144,12 +18144,12 @@
         <v>105</v>
       </c>
       <c r="D239" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A240" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>29</v>
@@ -18158,12 +18158,12 @@
         <v>170</v>
       </c>
       <c r="D240" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A241" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>29</v>
@@ -18172,96 +18172,96 @@
         <v>171</v>
       </c>
       <c r="D241" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A242" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D242" t="s">
-        <v>408</v>
+        <v>711</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A243" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D243" t="s">
-        <v>408</v>
+        <v>711</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A244" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D244" t="s">
-        <v>719</v>
+        <v>403</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A245" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D245" t="s">
-        <v>719</v>
+        <v>403</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A246" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D246" t="s">
-        <v>409</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A247" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D247" t="s">
-        <v>409</v>
+        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A248" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>29</v>
@@ -18270,12 +18270,12 @@
         <v>104</v>
       </c>
       <c r="D248" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A249" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>29</v>
@@ -18284,96 +18284,96 @@
         <v>105</v>
       </c>
       <c r="D249" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A250" s="2" t="s">
-        <v>880</v>
+        <v>272</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D250" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A251" s="2" t="s">
-        <v>880</v>
+        <v>272</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D251" t="s">
-        <v>719</v>
+        <v>404</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A252" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D252" t="s">
-        <v>410</v>
+        <v>714</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A253" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D253" t="s">
-        <v>410</v>
+        <v>714</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A254" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D254" t="s">
-        <v>721</v>
+        <v>405</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A255" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D255" t="s">
-        <v>721</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A256" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>29</v>
@@ -18382,12 +18382,12 @@
         <v>104</v>
       </c>
       <c r="D256" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A257" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>29</v>
@@ -18396,12 +18396,12 @@
         <v>105</v>
       </c>
       <c r="D257" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A258" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>29</v>
@@ -18410,12 +18410,12 @@
         <v>170</v>
       </c>
       <c r="D258" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A259" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>29</v>
@@ -18424,12 +18424,12 @@
         <v>171</v>
       </c>
       <c r="D259" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A260" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>29</v>
@@ -18438,12 +18438,12 @@
         <v>104</v>
       </c>
       <c r="D260" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A261" s="2" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>29</v>
@@ -18452,40 +18452,40 @@
         <v>105</v>
       </c>
       <c r="D261" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A262" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D262" t="s">
-        <v>412</v>
+        <v>717</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A263" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D263" t="s">
-        <v>412</v>
+        <v>717</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A264" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>29</v>
@@ -18494,12 +18494,12 @@
         <v>104</v>
       </c>
       <c r="D264" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A265" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>29</v>
@@ -18508,12 +18508,12 @@
         <v>105</v>
       </c>
       <c r="D265" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A266" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>29</v>
@@ -18522,12 +18522,12 @@
         <v>170</v>
       </c>
       <c r="D266" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A267" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>29</v>
@@ -18536,152 +18536,152 @@
         <v>171</v>
       </c>
       <c r="D267" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A268" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="D268" t="s">
-        <v>725</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A269" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="D269" t="s">
-        <v>725</v>
+        <v>408</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A270" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D270" t="s">
-        <v>414</v>
+        <v>719</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A271" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D271" t="s">
-        <v>414</v>
+        <v>719</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A272" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D272" t="s">
-        <v>776</v>
+        <v>409</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A273" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D273" t="s">
-        <v>776</v>
+        <v>409</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A274" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D274" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A275" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D275" t="s">
-        <v>415</v>
+        <v>720</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A276" s="2" t="s">
-        <v>283</v>
+        <v>880</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D276" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A277" s="2" t="s">
-        <v>283</v>
+        <v>880</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D277" t="s">
-        <v>777</v>
+        <v>719</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A278" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>29</v>
@@ -18690,12 +18690,12 @@
         <v>170</v>
       </c>
       <c r="D278" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A279" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>29</v>
@@ -18704,68 +18704,68 @@
         <v>171</v>
       </c>
       <c r="D279" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A280" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D280" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A281" s="2" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D281" t="s">
-        <v>778</v>
+        <v>721</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A282" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="D282" t="s">
-        <v>417</v>
+        <v>722</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A283" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="D283" t="s">
-        <v>417</v>
+        <v>722</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A284" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>29</v>
@@ -18774,12 +18774,12 @@
         <v>170</v>
       </c>
       <c r="D284" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A285" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>29</v>
@@ -18788,40 +18788,40 @@
         <v>171</v>
       </c>
       <c r="D285" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A286" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D286" t="s">
-        <v>542</v>
+        <v>723</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A287" s="2" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D287" t="s">
-        <v>542</v>
+        <v>723</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A288" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>29</v>
@@ -18830,12 +18830,12 @@
         <v>170</v>
       </c>
       <c r="D288" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A289" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>29</v>
@@ -18844,40 +18844,40 @@
         <v>171</v>
       </c>
       <c r="D289" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A290" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D290" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A291" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D291" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A292" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>29</v>
@@ -18886,12 +18886,12 @@
         <v>170</v>
       </c>
       <c r="D292" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A293" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>29</v>
@@ -18900,236 +18900,236 @@
         <v>171</v>
       </c>
       <c r="D293" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A294" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="D294" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A295" s="2" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>164</v>
+        <v>105</v>
       </c>
       <c r="D295" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A296" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D296" t="s">
-        <v>781</v>
+        <v>414</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A297" s="2" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D297" t="s">
-        <v>781</v>
+        <v>414</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A298" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D298" t="s">
-        <v>421</v>
+        <v>776</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A299" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D299" t="s">
-        <v>421</v>
+        <v>776</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A300" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D300" t="s">
-        <v>782</v>
+        <v>415</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A301" s="2" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D301" t="s">
-        <v>782</v>
+        <v>415</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A302" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D302" t="s">
-        <v>422</v>
+        <v>777</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A303" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D303" t="s">
-        <v>422</v>
+        <v>777</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A304" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D304" t="s">
-        <v>783</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A305" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D305" t="s">
-        <v>783</v>
+        <v>416</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A306" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D306" t="s">
-        <v>423</v>
+        <v>778</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A307" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D307" t="s">
-        <v>423</v>
+        <v>778</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A308" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D308" t="s">
-        <v>784</v>
+        <v>417</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A309" s="2" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D309" t="s">
-        <v>784</v>
+        <v>417</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A310" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>29</v>
@@ -19138,12 +19138,12 @@
         <v>170</v>
       </c>
       <c r="D310" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A311" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>29</v>
@@ -19152,40 +19152,40 @@
         <v>171</v>
       </c>
       <c r="D311" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A312" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D312" t="s">
-        <v>785</v>
+        <v>542</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A313" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="D313" t="s">
-        <v>785</v>
+        <v>542</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A314" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>29</v>
@@ -19194,12 +19194,12 @@
         <v>170</v>
       </c>
       <c r="D314" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A315" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>29</v>
@@ -19208,12 +19208,12 @@
         <v>171</v>
       </c>
       <c r="D315" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A316" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>29</v>
@@ -19222,12 +19222,12 @@
         <v>163</v>
       </c>
       <c r="D316" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A317" s="2" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>29</v>
@@ -19236,12 +19236,12 @@
         <v>164</v>
       </c>
       <c r="D317" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A318" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>29</v>
@@ -19250,12 +19250,12 @@
         <v>170</v>
       </c>
       <c r="D318" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A319" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>29</v>
@@ -19264,12 +19264,12 @@
         <v>171</v>
       </c>
       <c r="D319" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A320" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>29</v>
@@ -19278,12 +19278,12 @@
         <v>163</v>
       </c>
       <c r="D320" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A321" s="2" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>29</v>
@@ -19292,96 +19292,96 @@
         <v>164</v>
       </c>
       <c r="D321" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A322" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D322" t="s">
-        <v>427</v>
+        <v>781</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A323" s="2" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D323" t="s">
-        <v>427</v>
+        <v>781</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A324" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="D324" t="s">
-        <v>788</v>
+        <v>421</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A325" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D325" t="s">
-        <v>788</v>
+        <v>421</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A326" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D326" t="s">
-        <v>726</v>
+        <v>782</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A327" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="D327" t="s">
-        <v>726</v>
+        <v>782</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A328" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>29</v>
@@ -19390,12 +19390,12 @@
         <v>170</v>
       </c>
       <c r="D328" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A329" s="2" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>29</v>
@@ -19404,404 +19404,404 @@
         <v>171</v>
       </c>
       <c r="D329" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A330" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D330" t="s">
-        <v>429</v>
+        <v>783</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A331" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D331" t="s">
-        <v>429</v>
+        <v>783</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A332" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D332" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A333" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D333" t="s">
-        <v>543</v>
+        <v>423</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A334" s="2" t="s">
-        <v>922</v>
+        <v>292</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D334" t="s">
-        <v>924</v>
+        <v>784</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A335" s="2" t="s">
-        <v>922</v>
+        <v>292</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D335" t="s">
-        <v>924</v>
+        <v>784</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A336" s="2" t="s">
-        <v>923</v>
+        <v>293</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D336" t="s">
-        <v>925</v>
+        <v>424</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A337" s="2" t="s">
-        <v>923</v>
+        <v>293</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D337" t="s">
-        <v>925</v>
+        <v>424</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A338" s="2" t="s">
-        <v>926</v>
+        <v>293</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D338" t="s">
-        <v>927</v>
+        <v>785</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A339" s="2" t="s">
-        <v>926</v>
+        <v>293</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D339" t="s">
-        <v>927</v>
+        <v>785</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A340" s="2" t="s">
-        <v>928</v>
+        <v>294</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D340" t="s">
-        <v>929</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A341" s="2" t="s">
-        <v>928</v>
+        <v>294</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D341" t="s">
-        <v>929</v>
+        <v>425</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A342" s="2" t="s">
-        <v>930</v>
+        <v>294</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D342" t="s">
-        <v>931</v>
+        <v>786</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A343" s="2" t="s">
-        <v>930</v>
+        <v>294</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D343" t="s">
-        <v>931</v>
+        <v>786</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A344" s="2" t="s">
-        <v>932</v>
+        <v>295</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D344" t="s">
-        <v>933</v>
+        <v>426</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A345" s="2" t="s">
-        <v>932</v>
+        <v>295</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D345" t="s">
-        <v>933</v>
+        <v>426</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A346" s="2" t="s">
-        <v>934</v>
+        <v>295</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D346" t="s">
-        <v>935</v>
+        <v>787</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A347" s="2" t="s">
-        <v>934</v>
+        <v>295</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D347" t="s">
-        <v>935</v>
+        <v>787</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A348" s="2" t="s">
-        <v>936</v>
+        <v>296</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D348" t="s">
-        <v>937</v>
+        <v>427</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A349" s="2" t="s">
-        <v>936</v>
+        <v>296</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D349" t="s">
-        <v>937</v>
+        <v>427</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A350" s="2" t="s">
-        <v>938</v>
+        <v>296</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="D350" t="s">
-        <v>939</v>
+        <v>788</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A351" s="2" t="s">
-        <v>938</v>
+        <v>296</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="D351" t="s">
-        <v>939</v>
+        <v>788</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A352" s="2" t="s">
-        <v>940</v>
+        <v>300</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="D352" t="s">
-        <v>941</v>
+        <v>726</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A353" s="2" t="s">
-        <v>940</v>
+        <v>300</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="D353" t="s">
-        <v>941</v>
+        <v>726</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A354" s="2" t="s">
-        <v>942</v>
+        <v>300</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D354" t="s">
-        <v>943</v>
+        <v>428</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A355" s="2" t="s">
-        <v>942</v>
+        <v>300</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D355" t="s">
-        <v>943</v>
+        <v>428</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A356" s="2" t="s">
-        <v>944</v>
+        <v>297</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D356" t="s">
-        <v>945</v>
+        <v>429</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A357" s="2" t="s">
-        <v>944</v>
+        <v>297</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="D357" t="s">
-        <v>945</v>
+        <v>429</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A358" s="2" t="s">
-        <v>946</v>
+        <v>297</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>29</v>
@@ -19810,12 +19810,12 @@
         <v>147</v>
       </c>
       <c r="D358" t="s">
-        <v>947</v>
+        <v>543</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A359" s="2" t="s">
-        <v>946</v>
+        <v>297</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>29</v>
@@ -19824,11 +19824,11 @@
         <v>148</v>
       </c>
       <c r="D359" t="s">
-        <v>947</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D333"/>
+  <autoFilter ref="A1:D359"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
